--- a/assets/excel/data_software.xlsx
+++ b/assets/excel/data_software.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -47,28 +47,40 @@
     <t>Description</t>
   </si>
   <si>
-    <t>OS Windows 10</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>2017-09-02</t>
-  </si>
-  <si>
-    <t>2017-09-01</t>
-  </si>
-  <si>
-    <t>2018-09-01</t>
-  </si>
-  <si>
-    <t>Nothing</t>
+    <t>Norton Security with Backup</t>
+  </si>
+  <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>2017-09-13</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JW29XYDWKVPKJFQFCQX4TVWP3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4FQ3WHWJB6QTFF2V3GJF7Y66
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JYD2JQRY9FF4T2MW6TQGJRWTR
+</t>
+  </si>
+  <si>
+    <t>Axure RP Team</t>
+  </si>
+  <si>
+    <t>Axure</t>
+  </si>
+  <si>
+    <t>2017-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,29 +466,109 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2">
+        <v>780000</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1500000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3">
+        <v>780000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4">
+        <v>780000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5">
+        <v>637000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
